--- a/air_result1.xlsx
+++ b/air_result1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,53 +480,53 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.459553682229986</v>
+        <v>2.750467</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8865813920404533</v>
+        <v>9.008438</v>
       </c>
       <c r="D2" t="n">
-        <v>210.3031683125396</v>
+        <v>191.498691</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.834409</v>
       </c>
       <c r="F2" t="n">
-        <v>2.497288713349047</v>
+        <v>14.435929</v>
       </c>
       <c r="G2" t="n">
-        <v>9.814257244485683</v>
+        <v>5.218242</v>
       </c>
       <c r="H2" t="n">
-        <v>220.7852354527917</v>
+        <v>245.753568</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01846639711175333</v>
+        <v>1.083638</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9204646894932134</v>
+        <v>1.168311</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5581077374253729</v>
+        <v>1.007928</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>62693</t>
+          <t>62676</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.278133857385822</v>
+        <v>20.874946</v>
       </c>
       <c r="C3" t="n">
-        <v>3.490729187502759</v>
+        <v>19.181428</v>
       </c>
       <c r="D3" t="n">
-        <v>232.0246751717848</v>
+        <v>275.186209</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>10.220825</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -541,84 +541,343 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.174012597727588</v>
+        <v>2.796229</v>
       </c>
       <c r="K3" t="n">
-        <v>7.277029597109587</v>
+        <v>3.082796</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>63094</t>
+          <t>62693</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.49451489136672</v>
+        <v>4.998209</v>
       </c>
       <c r="C4" t="n">
-        <v>30.16978520877168</v>
+        <v>7.198759</v>
       </c>
       <c r="D4" t="n">
-        <v>135.6110129729852</v>
+        <v>241.118018</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4.255437</v>
       </c>
       <c r="F4" t="n">
-        <v>3.186426184502167</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.675304071919614</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2066.240422156463</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.475072290918914</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>12.76595744680852</v>
+        <v>8.984022</v>
       </c>
       <c r="K4" t="n">
-        <v>16.04127051993204</v>
+        <v>3.225198</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>62880</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.132569</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10.514064</v>
+      </c>
+      <c r="D5" t="n">
+        <v>141.944382</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.665172999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15.241519</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.91051</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>63094</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>25.700125</v>
+      </c>
+      <c r="C6" t="n">
+        <v>60.743499</v>
+      </c>
+      <c r="D6" t="n">
+        <v>192.940806</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.006706</v>
+      </c>
+      <c r="F6" t="n">
+        <v>36.083014</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14.864926</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2318.983539</v>
+      </c>
+      <c r="I6" t="n">
+        <v>18.629117</v>
+      </c>
+      <c r="J6" t="n">
+        <v>70.099688</v>
+      </c>
+      <c r="K6" t="n">
+        <v>43.034756</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>63376</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.640506</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.82545</v>
+      </c>
+      <c r="D7" t="n">
+        <v>134.412763</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.893606</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.515516</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8.070572</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>64518</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>32.447808</v>
+      </c>
+      <c r="C8" t="n">
+        <v>29.647902</v>
+      </c>
+      <c r="D8" t="n">
+        <v>430.088452</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.392882</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.86395</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12.47562</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>64704</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.5414117722019505</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1799129587583845</v>
-      </c>
-      <c r="D5" t="n">
-        <v>205.7446846231272</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.302160328479439</v>
-      </c>
-      <c r="K5" t="n">
-        <v>11.2122816954127</v>
+      <c r="B9" t="n">
+        <v>7.183095</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.055376</v>
+      </c>
+      <c r="D9" t="n">
+        <v>199.979379</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.475471</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.392148</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8.444191999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>66122</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.687733</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.022116</v>
+      </c>
+      <c r="D10" t="n">
+        <v>122.9281</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.365798</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.607323</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.502026</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>66726</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>13.095668</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14.758979</v>
+      </c>
+      <c r="D11" t="n">
+        <v>162.756518</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.245401</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.020539</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.034252</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11.25111246773794</v>
+      </c>
+      <c r="C12" t="n">
+        <v>16.79560102199366</v>
+      </c>
+      <c r="D12" t="n">
+        <v>209.285331722759</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.935570796273469</v>
+      </c>
+      <c r="F12" t="n">
+        <v>25.25947132721713</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.04158387678073</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1282.368553660413</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9.856377162634343</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10.86892450787988</v>
+      </c>
+      <c r="K12" t="n">
+        <v>8.778785052696435</v>
       </c>
     </row>
   </sheetData>
